--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44531A8-3C8A-44AC-BE03-AD8A091431A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D700A-F3A1-4686-995F-A35F6D7ABE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Column" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -32,6 +33,21 @@
   </si>
   <si>
     <t>Duplicate Rows</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Distinct Values</t>
+  </si>
+  <si>
+    <t>Null Values</t>
+  </si>
+  <si>
+    <t>Min Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
   </si>
 </sst>
 </file>
@@ -84,12 +100,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -169,11 +185,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +291,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,10 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,7 +702,7 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="23"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -559,7 +710,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="23"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,7 +718,7 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="24"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -575,7 +726,7 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="25"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,19 +742,109 @@
       <c r="F8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7D3764-60C1-4CA4-A36E-EBEE932024EB}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="1" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="8.796875" style="2"/>
+    <col min="6" max="7" width="1" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D700A-F3A1-4686-995F-A35F6D7ABE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3BC34-A963-4E97-945D-C195DE3D160B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,43 +311,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +702,7 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="17"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="17"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="18"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="19"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,8 +785,8 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,8 +794,8 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -803,8 +803,8 @@
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,8 +812,8 @@
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,8 +821,8 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3BC34-A963-4E97-945D-C195DE3D160B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731A014-720E-4C5D-AFA6-2283BDAC4BD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -48,13 +48,35 @@
   </si>
   <si>
     <t>Max Value</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Basic Data</t>
+  </si>
+  <si>
+    <t>Common Values</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +100,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -186,54 +237,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -269,11 +278,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,60 +323,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +711,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,7 +743,7 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="9"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,7 +751,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="9"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +759,7 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="10"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +767,7 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="11"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,10 +793,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,70 +821,272 @@
       <c r="A2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="16"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="G9" s="1"/>
     </row>
+    <row r="10" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="16"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="17"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="5">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731A014-720E-4C5D-AFA6-2283BDAC4BD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C30528-B53E-4D54-86FE-A5169D359F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -793,10 +793,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,10 +805,15 @@
     <col min="3" max="3" width="14.69921875" style="7" customWidth="1"/>
     <col min="4" max="5" width="8.796875" style="2"/>
     <col min="6" max="7" width="1" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="8" max="8" width="4.3984375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="1" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="6" customWidth="1"/>
+    <col min="12" max="13" width="8.796875" style="6"/>
+    <col min="14" max="15" width="1" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -816,12 +821,26 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="28" t="s">
         <v>12</v>
@@ -829,8 +848,17 @@
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
@@ -842,8 +870,21 @@
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -851,8 +892,15 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="19" t="s">
         <v>5</v>
@@ -860,8 +908,15 @@
       <c r="D6" s="12"/>
       <c r="E6" s="16"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -869,8 +924,15 @@
       <c r="D7" s="13"/>
       <c r="E7" s="17"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -878,8 +940,15 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -887,12 +956,26 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -900,124 +983,98 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="17"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1025,10 +1082,10 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1040,6 +1097,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1051,20 +1120,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E26">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="M5:M14">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1076,7 +1133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E9">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C30528-B53E-4D54-86FE-A5169D359F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C3948-7B70-40AC-90CB-C1BFA2ED8FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Common Lenghts</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -362,6 +368,15 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,15 +393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,10 +799,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,15 +811,20 @@
     <col min="3" max="3" width="14.69921875" style="7" customWidth="1"/>
     <col min="4" max="5" width="8.796875" style="2"/>
     <col min="6" max="7" width="1" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.59765625" style="2" customWidth="1"/>
     <col min="9" max="10" width="1" style="6" customWidth="1"/>
     <col min="11" max="11" width="14.69921875" style="6" customWidth="1"/>
     <col min="12" max="13" width="8.796875" style="6"/>
     <col min="14" max="15" width="1" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="2"/>
+    <col min="16" max="16" width="3.59765625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="1" style="6" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.796875" style="6"/>
+    <col min="22" max="23" width="1" style="6" customWidth="1"/>
+    <col min="24" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -828,8 +839,15 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
@@ -839,26 +857,42 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
@@ -883,14 +917,27 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -899,8 +946,15 @@
       <c r="M5" s="16"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="19" t="s">
         <v>5</v>
@@ -915,8 +969,15 @@
       <c r="M6" s="21"/>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -931,14 +992,21 @@
       <c r="M7" s="21"/>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -947,14 +1015,21 @@
       <c r="M8" s="21"/>
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -963,8 +1038,15 @@
       <c r="M9" s="21"/>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
@@ -974,8 +1056,15 @@
       <c r="M10" s="21"/>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -990,8 +1079,15 @@
       <c r="M11" s="21"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
@@ -999,8 +1095,15 @@
       <c r="M12" s="21"/>
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1009,8 +1112,15 @@
       <c r="M13" s="21"/>
       <c r="N13" s="2"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
@@ -1019,8 +1129,15 @@
       <c r="M14" s="17"/>
       <c r="N14" s="2"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
@@ -1029,8 +1146,15 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1039,6 +1163,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -1061,23 +1192,9 @@
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="3:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1085,7 +1202,7 @@
     <mergeCell ref="K3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1097,6 +1214,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1108,8 +1261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L14">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="T5:T14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1120,20 +1273,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M14">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E9">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="U5:U14">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/f_data_exploration/Table Exploration.xlsx
+++ b/f_data_exploration/Table Exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\f_data_exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C3948-7B70-40AC-90CB-C1BFA2ED8FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB91529-8BB6-42FC-8049-EC8FF3CF38C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Common Regex</t>
+  </si>
+  <si>
+    <t>Regex</t>
   </si>
 </sst>
 </file>
@@ -716,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -789,6 +795,18 @@
       <c r="F8" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -799,10 +817,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView rightToLeft="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -821,10 +839,15 @@
     <col min="19" max="19" width="7.5" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8.796875" style="6"/>
     <col min="22" max="23" width="1" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="8.796875" style="2"/>
+    <col min="24" max="24" width="3.69921875" style="2" customWidth="1"/>
+    <col min="25" max="26" width="1" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.796875" style="6"/>
+    <col min="30" max="31" width="1" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -846,8 +869,15 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
@@ -864,8 +894,15 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="22" t="s">
         <v>12</v>
@@ -891,8 +928,17 @@
       <c r="U3" s="24"/>
       <c r="V3" s="2"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
@@ -930,8 +976,21 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -953,8 +1012,15 @@
       <c r="U5" s="16"/>
       <c r="V5" s="2"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="C6" s="19" t="s">
         <v>5</v>
@@ -976,8 +1042,15 @@
       <c r="U6" s="21"/>
       <c r="V6" s="2"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -999,8 +1072,15 @@
       <c r="U7" s="21"/>
       <c r="V7" s="2"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1022,8 +1102,15 @@
       <c r="U8" s="21"/>
       <c r="V8" s="2"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1045,8 +1132,15 @@
       <c r="U9" s="21"/>
       <c r="V9" s="2"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
@@ -1063,8 +1157,15 @@
       <c r="U10" s="21"/>
       <c r="V10" s="2"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -1086,8 +1187,15 @@
       <c r="U11" s="21"/>
       <c r="V11" s="2"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
@@ -1102,8 +1210,15 @@
       <c r="U12" s="21"/>
       <c r="V12" s="2"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1119,8 +1234,15 @@
       <c r="U13" s="21"/>
       <c r="V13" s="2"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
@@ -1136,8 +1258,15 @@
       <c r="U14" s="17"/>
       <c r="V14" s="2"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
@@ -1153,8 +1282,15 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="5.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1170,6 +1306,13 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -1193,7 +1336,8 @@
       <c r="C23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -1202,7 +1346,7 @@
     <mergeCell ref="K3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1214,7 +1358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1226,7 +1370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L14">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1238,7 +1382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M14">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1250,7 +1394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E9">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1262,6 +1406,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1273,8 +1429,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AB5:AB14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC14">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
